--- a/dreipunkt_aufwandsabschaetzung.xlsx
+++ b/dreipunkt_aufwandsabschaetzung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahkusaidy/Documents/Repositories/Parkassist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3AAFAD-3709-C849-9E7C-4AEA3E64C015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F713FD85-A7F7-9645-90BF-48393A85C98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16240" xr2:uid="{1F98348F-F45F-A84B-9C98-4441577B2E35}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,6 +505,9 @@
         <f>(B2+4*C2+D2)/6</f>
         <v>1.0416666666666667</v>
       </c>
+      <c r="G2">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -523,6 +526,9 @@
         <f t="shared" ref="E3:E15" si="0">(B3+4*C3+D3)/6</f>
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -754,7 +760,7 @@
       </c>
       <c r="G16">
         <f>SUM(G2:G14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/dreipunkt_aufwandsabschaetzung.xlsx
+++ b/dreipunkt_aufwandsabschaetzung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahkusaidy/Documents/Repositories/Parkassist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haaan\Documents\Studium\Semester 6\Graphische Programmierung\Projekt\Parkassist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F713FD85-A7F7-9645-90BF-48393A85C98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1162A6-86FF-40C4-B20A-74804B001139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16240" xr2:uid="{1F98348F-F45F-A84B-9C98-4441577B2E35}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F98348F-F45F-A84B-9C98-4441577B2E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -460,12 +460,12 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -509,7 +509,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -530,7 +530,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -547,8 +547,11 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333335</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -566,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -584,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -602,7 +605,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -620,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -638,7 +641,7 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -656,7 +659,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -674,7 +677,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -692,7 +695,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -709,8 +712,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -728,7 +734,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -746,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -760,7 +766,7 @@
       </c>
       <c r="G16">
         <f>SUM(G2:G14)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
